--- a/data/경기신보/시도별_공장등록_현황.xlsx
+++ b/data/경기신보/시도별_공장등록_현황.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="9552" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11256" windowHeight="9528" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,93 +19,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <x:si>
+    <x:t xml:space="preserve">	Gyeongsangnam-do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chungcheongbuk-do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gyeongsangbuk-do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chungcheongnam-do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gangwon-do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeollabuk-do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeollanam-do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gyeonggi-do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ulsan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Incheon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Daegu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sejong</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Daejeon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gwangju</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeju-do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Busan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대기업 개사</x:t>
+  </x:si>
   <x:si>
     <x:t>소기업 개사</x:t>
   </x:si>
   <x:si>
+    <x:t>중견기업 개사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합계 개사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합계 비중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소기업 비중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seoul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대기업 비중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중견기업 비중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중기업 개사</x:t>
+  </x:si>
+  <x:si>
     <x:t>중기업 비중</x:t>
   </x:si>
   <x:si>
-    <x:t>중견기업 개사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중기업 개사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소기업 비중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합계 비중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합계 개사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>울산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>충남</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경남</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전남</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>충북</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전북</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세종</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경북</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대기업 개사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대기업 비중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중견기업 비중</x:t>
+    <x:t>경도</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1066,52 +1069,62 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:K19"/>
+  <x:dimension ref="A1:M19"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="D10" activeCellId="0" sqref="D10:D10"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="K13" activeCellId="0" sqref="K13:K13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
+  <x:cols>
+    <x:col min="12" max="12" width="11.1328125" bestFit="1" customWidth="1"/>
+    <x:col min="13" max="13" width="12.21484375" bestFit="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:11" ht="21.5">
+    <x:row r="1" spans="1:13" ht="21.5">
       <x:c r="A1" s="10" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B1" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D1" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E1" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F1" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G1" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H1" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I1" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J1" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="K1" s="10" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L1" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D1" s="10" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1" s="10" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="10" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G1" s="10" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H1" s="10" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I1" s="10" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="J1" s="10" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="K1" s="10" t="s">
-        <x:v>27</x:v>
+      <x:c r="M1" s="10" t="s">
+        <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:11">
+    <x:row r="2" spans="1:13" ht="21.5">
       <x:c r="A2" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B2" s="2">
         <x:v>77371</x:v>
@@ -1143,10 +1156,16 @@
       <x:c r="K2" s="3">
         <x:v>0.214</x:v>
       </x:c>
+      <x:c r="L2">
+        <x:v>37.436317699999996</x:v>
+      </x:c>
+      <x:c r="M2">
+        <x:v>127.550802</x:v>
+      </x:c>
     </x:row>
-    <x:row r="3" spans="1:11">
+    <x:row r="3" spans="1:13" ht="32.25">
       <x:c r="A3" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="6">
         <x:v>20413</x:v>
@@ -1178,10 +1197,16 @@
       <x:c r="K3" s="7">
         <x:v>0.089999999999999991</x:v>
       </x:c>
+      <x:c r="L3">
+        <x:v>35.441420899999997</x:v>
+      </x:c>
+      <x:c r="M3">
+        <x:v>128.24174529999999</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:11">
+    <x:row r="4" spans="1:13" ht="21.5">
       <x:c r="A4" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="6">
         <x:v>16227</x:v>
@@ -1213,8 +1238,14 @@
       <x:c r="K4" s="7">
         <x:v>0.10800000000000001</x:v>
       </x:c>
+      <x:c r="L4">
+        <x:v>36.630839700000003</x:v>
+      </x:c>
+      <x:c r="M4">
+        <x:v>128.96257800000001</x:v>
+      </x:c>
     </x:row>
-    <x:row r="5" spans="1:11">
+    <x:row r="5" spans="1:13">
       <x:c r="A5" s="5" t="s">
         <x:v>11</x:v>
       </x:c>
@@ -1248,10 +1279,16 @@
       <x:c r="K5" s="7">
         <x:v>0.047999999999999998</x:v>
       </x:c>
+      <x:c r="L5">
+        <x:v>37.455941799999998</x:v>
+      </x:c>
+      <x:c r="M5">
+        <x:v>126.7051505</x:v>
+      </x:c>
     </x:row>
-    <x:row r="6" spans="1:11">
+    <x:row r="6" spans="1:13" ht="32.25">
       <x:c r="A6" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B6" s="6">
         <x:v>12172</x:v>
@@ -1283,10 +1320,16 @@
       <x:c r="K6" s="7">
         <x:v>0.111</x:v>
       </x:c>
+      <x:c r="L6">
+        <x:v>36.617337900000003</x:v>
+      </x:c>
+      <x:c r="M6">
+        <x:v>126.84539650000001</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="1:11">
+    <x:row r="7" spans="1:13">
       <x:c r="A7" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B7" s="6">
         <x:v>11344</x:v>
@@ -1318,10 +1361,16 @@
       <x:c r="K7" s="7">
         <x:v>0.017000000000000001</x:v>
       </x:c>
+      <x:c r="L7">
+        <x:v>37.566610300000001</x:v>
+      </x:c>
+      <x:c r="M7">
+        <x:v>126.9783882</x:v>
+      </x:c>
     </x:row>
-    <x:row r="8" spans="1:11">
+    <x:row r="8" spans="1:13">
       <x:c r="A8" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B8" s="6">
         <x:v>11163</x:v>
@@ -1353,10 +1402,16 @@
       <x:c r="K8" s="7">
         <x:v>0.032000000000000001</x:v>
       </x:c>
+      <x:c r="L8">
+        <x:v>35.179816000000002</x:v>
+      </x:c>
+      <x:c r="M8">
+        <x:v>129.0750223</x:v>
+      </x:c>
     </x:row>
-    <x:row r="9" spans="1:11">
+    <x:row r="9" spans="1:13" ht="21.5">
       <x:c r="A9" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B9" s="6">
         <x:v>10091</x:v>
@@ -1388,10 +1443,16 @@
       <x:c r="K9" s="7">
         <x:v>0.10300000000000001</x:v>
       </x:c>
+      <x:c r="L9">
+        <x:v>36.7853718</x:v>
+      </x:c>
+      <x:c r="M9">
+        <x:v>127.65514039999999</x:v>
+      </x:c>
     </x:row>
-    <x:row r="10" spans="1:11">
+    <x:row r="10" spans="1:13">
       <x:c r="A10" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B10" s="6">
         <x:v>8816</x:v>
@@ -1423,10 +1484,16 @@
       <x:c r="K10" s="7">
         <x:v>0.032000000000000001</x:v>
       </x:c>
+      <x:c r="L10">
+        <x:v>35.871389999999998</x:v>
+      </x:c>
+      <x:c r="M10">
+        <x:v>128.60176300000001</x:v>
+      </x:c>
     </x:row>
-    <x:row r="11" spans="1:11">
+    <x:row r="11" spans="1:13" ht="21.5">
       <x:c r="A11" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B11" s="6">
         <x:v>8079</x:v>
@@ -1458,10 +1525,16 @@
       <x:c r="K11" s="7">
         <x:v>0.053000000000000003</x:v>
       </x:c>
+      <x:c r="L11">
+        <x:v>34.900727400000001</x:v>
+      </x:c>
+      <x:c r="M11">
+        <x:v>126.9571667</x:v>
+      </x:c>
     </x:row>
-    <x:row r="12" spans="1:11">
+    <x:row r="12" spans="1:13" ht="21.5">
       <x:c r="A12" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="6">
         <x:v>7847</x:v>
@@ -1493,10 +1566,16 @@
       <x:c r="K12" s="7">
         <x:v>0.055999999999999994</x:v>
       </x:c>
+      <x:c r="L12">
+        <x:v>35.691015299999997</x:v>
+      </x:c>
+      <x:c r="M12">
+        <x:v>127.23682909999999</x:v>
+      </x:c>
     </x:row>
-    <x:row r="13" spans="1:11">
+    <x:row r="13" spans="1:13">
       <x:c r="A13" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B13" s="6">
         <x:v>4781</x:v>
@@ -1528,10 +1607,16 @@
       <x:c r="K13" s="7">
         <x:v>0.020000000000000001</x:v>
       </x:c>
+      <x:c r="L13">
+        <x:v>35.160032000000001</x:v>
+      </x:c>
+      <x:c r="M13">
+        <x:v>126.851338</x:v>
+      </x:c>
     </x:row>
-    <x:row r="14" spans="1:11">
+    <x:row r="14" spans="1:13" ht="21.5">
       <x:c r="A14" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B14" s="6">
         <x:v>4227</x:v>
@@ -1563,10 +1648,16 @@
       <x:c r="K14" s="7">
         <x:v>0.011000000000000001</x:v>
       </x:c>
+      <x:c r="L14">
+        <x:v>37.860367199999999</x:v>
+      </x:c>
+      <x:c r="M14">
+        <x:v>128.31152610000001</x:v>
+      </x:c>
     </x:row>
-    <x:row r="15" spans="1:11">
+    <x:row r="15" spans="1:13">
       <x:c r="A15" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B15" s="6">
         <x:v>3986</x:v>
@@ -1598,10 +1689,16 @@
       <x:c r="K15" s="7">
         <x:v>0.023999999999999999</x:v>
       </x:c>
+      <x:c r="L15">
+        <x:v>36.350439600000001</x:v>
+      </x:c>
+      <x:c r="M15">
+        <x:v>127.3849508</x:v>
+      </x:c>
     </x:row>
-    <x:row r="16" spans="1:11">
+    <x:row r="16" spans="1:13">
       <x:c r="A16" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B16" s="6">
         <x:v>3175</x:v>
@@ -1633,10 +1730,16 @@
       <x:c r="K16" s="7">
         <x:v>0.070000000000000007</x:v>
       </x:c>
+      <x:c r="L16">
+        <x:v>35.539477300000001</x:v>
+      </x:c>
+      <x:c r="M16">
+        <x:v>129.3112994</x:v>
+      </x:c>
     </x:row>
-    <x:row r="17" spans="1:11">
+    <x:row r="17" spans="1:13">
       <x:c r="A17" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B17" s="8">
         <x:v>872</x:v>
@@ -1668,10 +1771,16 @@
       <x:c r="K17" s="7">
         <x:v>0.0090000000000000013</x:v>
       </x:c>
+      <x:c r="L17">
+        <x:v>36.480351200000001</x:v>
+      </x:c>
+      <x:c r="M17">
+        <x:v>127.2894325</x:v>
+      </x:c>
     </x:row>
-    <x:row r="18" spans="1:11">
+    <x:row r="18" spans="1:13">
       <x:c r="A18" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="4">
         <x:v>765</x:v>
@@ -1703,44 +1812,28 @@
       <x:c r="K18" s="3">
         <x:v>0.0040000000000000002</x:v>
       </x:c>
+      <x:c r="L18">
+        <x:v>33.427336599999997</x:v>
+      </x:c>
+      <x:c r="M18">
+        <x:v>126.57583440000001</x:v>
+      </x:c>
     </x:row>
     <x:row r="19" spans="1:11">
-      <x:c r="A19" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B19" s="2">
-        <x:v>215261</x:v>
-      </x:c>
-      <x:c r="C19" s="9">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D19" s="2">
-        <x:v>201896</x:v>
-      </x:c>
-      <x:c r="E19" s="9">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F19" s="2">
-        <x:v>11920</x:v>
-      </x:c>
-      <x:c r="G19" s="9">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H19" s="4">
-        <x:v>310</x:v>
-      </x:c>
-      <x:c r="I19" s="9">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J19" s="2">
-        <x:v>1135</x:v>
-      </x:c>
-      <x:c r="K19" s="9">
-        <x:v>1</x:v>
-      </x:c>
+      <x:c r="A19" s="1"/>
+      <x:c r="B19" s="2"/>
+      <x:c r="C19" s="9"/>
+      <x:c r="D19" s="2"/>
+      <x:c r="E19" s="9"/>
+      <x:c r="F19" s="2"/>
+      <x:c r="G19" s="9"/>
+      <x:c r="H19" s="4"/>
+      <x:c r="I19" s="9"/>
+      <x:c r="J19" s="2"/>
+      <x:c r="K19" s="9"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
--- a/data/경기신보/시도별_공장등록_현황.xlsx
+++ b/data/경기신보/시도별_공장등록_현황.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11256" windowHeight="9528" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="9552" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,58 +21,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <x:si>
-    <x:t xml:space="preserve">	Gyeongsangnam-do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chungcheongbuk-do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gyeongsangbuk-do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chungcheongnam-do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gangwon-do</x:t>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충남</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경북</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>울산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경남</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경도</x:t>
   </x:si>
   <x:si>
     <x:t>위도</x:t>
   </x:si>
   <x:si>
-    <x:t>Jeollabuk-do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeollanam-do</x:t>
-  </x:si>
-  <x:si>
     <x:t>시도</x:t>
   </x:si>
   <x:si>
-    <x:t>Gyeonggi-do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ulsan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Incheon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Daegu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sejong</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Daejeon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gwangju</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeju-do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Busan</x:t>
+    <x:t>중견기업 개사</x:t>
   </x:si>
   <x:si>
     <x:t>대기업 개사</x:t>
@@ -81,34 +63,52 @@
     <x:t>소기업 개사</x:t>
   </x:si>
   <x:si>
-    <x:t>중견기업 개사</x:t>
-  </x:si>
-  <x:si>
     <x:t>합계 개사</x:t>
   </x:si>
   <x:si>
     <x:t>합계 비중</x:t>
   </x:si>
   <x:si>
+    <x:t>중기업 비중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중견기업 비중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대기업 비중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중기업 개사</x:t>
+  </x:si>
+  <x:si>
     <x:t>소기업 비중</x:t>
   </x:si>
   <x:si>
-    <x:t>Seoul</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대기업 비중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중견기업 비중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중기업 개사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중기업 비중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경도</x:t>
+    <x:t>부산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전남</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충북</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전북</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세종</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1071,60 +1071,61 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:M19"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K13" activeCellId="0" sqref="K13:K13"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="113" zoomScaleNormal="75" zoomScaleSheetLayoutView="113" workbookViewId="0">
+      <x:selection activeCell="A18" activeCellId="0" sqref="A18:A18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
+    <x:col min="3" max="3" width="8.796875" bestFit="1" customWidth="1"/>
     <x:col min="12" max="12" width="11.1328125" bestFit="1" customWidth="1"/>
     <x:col min="13" max="13" width="12.21484375" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:13" ht="21.5">
       <x:c r="A1" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B1" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C1" s="10" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D1" s="10" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E1" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G1" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H1" s="10" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1" s="10" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J1" s="10" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K1" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="L1" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="M1" s="10" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B1" s="10" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C1" s="10" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D1" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E1" s="10" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F1" s="10" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G1" s="10" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H1" s="10" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I1" s="10" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="J1" s="10" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="K1" s="10" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="L1" s="10" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="M1" s="10" t="s">
-        <x:v>29</x:v>
-      </x:c>
     </x:row>
-    <x:row r="2" spans="1:13" ht="21.5">
+    <x:row r="2" spans="1:13">
       <x:c r="A2" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="2">
         <x:v>77371</x:v>
@@ -1163,9 +1164,9 @@
         <x:v>127.550802</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:13" ht="32.25">
+    <x:row r="3" spans="1:13">
       <x:c r="A3" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B3" s="6">
         <x:v>20413</x:v>
@@ -1204,9 +1205,9 @@
         <x:v>128.24174529999999</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:13" ht="21.5">
+    <x:row r="4" spans="1:13">
       <x:c r="A4" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="6">
         <x:v>16227</x:v>
@@ -1247,7 +1248,7 @@
     </x:row>
     <x:row r="5" spans="1:13">
       <x:c r="A5" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="6">
         <x:v>13932</x:v>
@@ -1286,9 +1287,9 @@
         <x:v>126.7051505</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:13" ht="32.25">
+    <x:row r="6" spans="1:13">
       <x:c r="A6" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B6" s="6">
         <x:v>12172</x:v>
@@ -1329,7 +1330,7 @@
     </x:row>
     <x:row r="7" spans="1:13">
       <x:c r="A7" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="6">
         <x:v>11344</x:v>
@@ -1370,7 +1371,7 @@
     </x:row>
     <x:row r="8" spans="1:13">
       <x:c r="A8" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B8" s="6">
         <x:v>11163</x:v>
@@ -1409,9 +1410,9 @@
         <x:v>129.0750223</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:13" ht="21.5">
+    <x:row r="9" spans="1:13">
       <x:c r="A9" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B9" s="6">
         <x:v>10091</x:v>
@@ -1452,7 +1453,7 @@
     </x:row>
     <x:row r="10" spans="1:13">
       <x:c r="A10" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B10" s="6">
         <x:v>8816</x:v>
@@ -1491,9 +1492,9 @@
         <x:v>128.60176300000001</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:13" ht="21.5">
+    <x:row r="11" spans="1:13">
       <x:c r="A11" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B11" s="6">
         <x:v>8079</x:v>
@@ -1532,9 +1533,9 @@
         <x:v>126.9571667</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:13" ht="21.5">
+    <x:row r="12" spans="1:13">
       <x:c r="A12" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B12" s="6">
         <x:v>7847</x:v>
@@ -1575,7 +1576,7 @@
     </x:row>
     <x:row r="13" spans="1:13">
       <x:c r="A13" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B13" s="6">
         <x:v>4781</x:v>
@@ -1614,9 +1615,9 @@
         <x:v>126.851338</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:13" ht="21.5">
+    <x:row r="14" spans="1:13">
       <x:c r="A14" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B14" s="6">
         <x:v>4227</x:v>
@@ -1657,7 +1658,7 @@
     </x:row>
     <x:row r="15" spans="1:13">
       <x:c r="A15" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B15" s="6">
         <x:v>3986</x:v>
@@ -1698,7 +1699,7 @@
     </x:row>
     <x:row r="16" spans="1:13">
       <x:c r="A16" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B16" s="6">
         <x:v>3175</x:v>
@@ -1739,7 +1740,7 @@
     </x:row>
     <x:row r="17" spans="1:13">
       <x:c r="A17" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B17" s="8">
         <x:v>872</x:v>
@@ -1780,7 +1781,7 @@
     </x:row>
     <x:row r="18" spans="1:13">
       <x:c r="A18" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B18" s="4">
         <x:v>765</x:v>
